--- a/logs/registro_actividad_balanzas.xlsx
+++ b/logs/registro_actividad_balanzas.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1307,6 +1307,178 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-06-05 20:35:31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Inicio Sesion</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1, Rol: usuario</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-06-05 20:35:32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Producto: LP7516</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-06-05 20:36:02</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-06-05 20:36:18</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Inicio Sesion</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1, Rol: usuario</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-06-05 20:36:20</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Producto: LP7516</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-06-05 20:36:26</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/registro_actividad_balanzas.xlsx
+++ b/logs/registro_actividad_balanzas.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1479,6 +1479,255 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-06-05 20:37:29</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Inicio Sesion</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1, Rol: usuario</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-06-05 20:37:31</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Producto: LP7516</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-06-05 20:37:35</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Intento Abrir Enlace Web</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>URL: https://www.youtube.com/watch?v=WJbHmguujdc&amp;ab_channel=ONECOIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-06-05 20:37:42</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Producto: TCS-IND.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-06-05 20:37:48</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-06-05 20:40:41</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Inicio Sesion</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1, Rol: usuario</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-06-05 20:40:42</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Producto: LP7516</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-06-05 20:41:58</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Producto: TCS-IND.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-06-05 20:42:00</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Producto: TRASPALETA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/registro_actividad_balanzas.xlsx
+++ b/logs/registro_actividad_balanzas.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1726,7 +1726,966 @@
           <t>Producto: TRASPALETA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:12:48</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Inicio Sesion</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1, Rol: usuario</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:12:49</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Producto: LP7516</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:12:59</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Producto: TCS-IND.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:13:02</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Producto: TCS-IND.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:13:07</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Producto: TRASPALETA</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:13:10</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Producto: XK </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:13:24</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Producto: TCS-IND.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:14:39</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Inicio Sesion</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1, Rol: usuario</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:14:41</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Producto: LP7516</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:18:27</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Inicio Sesion</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1, Rol: usuario</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:18:30</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Producto: LP7516</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:21:46</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Inicio Sesion</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1, Rol: usuario</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:21:48</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Producto: LP7516</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:21:50</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Producto: TCS-IND.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:21:52</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Producto: TRASPALETA</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:21:54</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Producto: XK </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:21:55</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:22:37</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Inicio Sesion</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1, Rol: usuario</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:22:39</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Producto: LP7516</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:22:40</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Intento Abrir Enlace Web</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>URL: https://www.twitch.tv/pinguin_dark</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:22:47</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Intento Abrir Enlace Web</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>URL: https://www.youtube.com/watch?v=WJbHmguujdc&amp;ab_channel=ONECOIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:25:52</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:31:09</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Inicio Sesion</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1, Rol: usuario</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:31:10</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Producto: LP7516</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:31:12</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Intento Abrir Enlace Web</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>URL: https://www.twitch.tv/pinguin_dark</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:31:27</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Intento Abrir Enlace Web</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>URL: https://www.youtube.com/watch?v=WJbHmguujdc&amp;ab_channel=ONECOIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:31:29</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Intento Abrir Enlace Web</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>URL: https://www.twitch.tv/pinguin_dark</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:31:59</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Inicio Sesion</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1, Rol: usuario</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:32:01</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Producto: LP7516</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:39:03</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Inicio Sesion</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1, Rol: usuario</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:39:04</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Producto: LP7516</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:39:05</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Intento Abrir Recurso</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Recurso: lp7516manual.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:39:21</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Intento Abrir Recurso</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Recurso: lp7516manual.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:39:28</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Intento Abrir Recurso</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Recurso: https://www.youtube.com/watch?v=WJbHmguujdc&amp;ab_channel=ONECOIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-06-05 21:39:33</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/logs/registro_actividad_balanzas.xlsx
+++ b/logs/registro_actividad_balanzas.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2687,6 +2687,330 @@
         </is>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-06-06 09:22:39</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Sin inicio de sesion previo (cerrado desde login).</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-06-06 09:23:59</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Inicio Sesion</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1, Rol: usuario</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-06-06 09:24:10</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Producto: LP7516</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-06-06 09:24:26</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Intento Abrir Recurso</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Recurso: lp7516manual.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-06-06 09:29:54</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Inicio Sesion</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1, Rol: usuario</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-06-06 09:29:56</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Producto: LP7516</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-06-06 09:30:07</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-06-06 09:31:07</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>administrador</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Inicio Sesion</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Usuario: admin, Rol: administrador</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-06-06 09:31:13</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>administrador</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Producto: LP7516</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-06-06 09:31:32</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>administrador</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Edicion Producto (Guardado)</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Producto: LP7516. Cambios: stock: '10' -&gt; '2'</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-06-06 09:31:34</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>administrador</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Producto: LP7516</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-06-06 09:33:27</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>administrador</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Usuario: admin</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/registro_actividad_balanzas.xlsx
+++ b/logs/registro_actividad_balanzas.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3011,6 +3011,119 @@
         </is>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:24:39</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Inicio Sesion</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1, Rol: usuario</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:24:43</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Producto: TCS-IND.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:24:45</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Producto: LP7516</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:24:46</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/registro_actividad_balanzas.xlsx
+++ b/logs/registro_actividad_balanzas.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3124,6 +3124,249 @@
         </is>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:32:47</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Inicio Sesion</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1, Rol: usuario</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:32:50</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:34:22</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Sin inicio de sesion previo (cerrado desde login).</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:37:53</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Inicio Sesion</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1, Rol: usuario</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:37:55</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Producto: LP7516</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:37:57</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Producto: TCS-IND.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:37:59</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Producto: TRASPALETA</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:38:00</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Consulta Producto</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Producto: XK</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:38:03</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>usuario1</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Usuario: usuario1</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/registro_actividad_balanzas.xlsx
+++ b/logs/registro_actividad_balanzas.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3367,6 +3367,245 @@
         </is>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:47:06</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Cerrado desde login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:47:13</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Cerrado desde login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:47:46</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Cerrado desde login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:47:57</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Cerrado desde login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:49:07</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Cerrado desde login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:49:18</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Cerrado desde login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:49:35</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Cerrado desde login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:49:52</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Cerrado desde login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:50:14</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Cerrado desde login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-06-06 19:53:19</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Cerrado desde login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-06-06 20:02:25</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Cerrado desde login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-06-06 20:02:26</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Cerrado desde login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-06-06 20:04:52</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Cerrado desde login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-06-06 20:08:23</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Cerrado desde login.</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/registro_actividad_balanzas.xlsx
+++ b/logs/registro_actividad_balanzas.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3604,7 +3604,136 @@
           <t>Cerrado desde login.</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-06-06 20:16:23</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Cerrado desde login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-06-06 20:16:48</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Cerrado desde login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-06-06 20:17:24</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Cerrado desde login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-06-06 20:19:31</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Cerrado desde login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-06-06 20:21:54</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Cerrado desde login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-06-07 10:58:12</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Cierre Aplicacion</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Cerrado desde login.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-06-07 11:06:56</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>superadmin</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>superadmin</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Inicio Sesion</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Usuario: superadmin, Rol: superadmin</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
